--- a/experimental results/e6000_FrozenLake__compare.xlsx
+++ b/experimental results/e6000_FrozenLake__compare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="50">
   <si>
     <t>domain</t>
   </si>
@@ -70,85 +70,82 @@
     <t>[0,0,2,3]</t>
   </si>
   <si>
+    <t>[0,0,0,0]</t>
+  </si>
+  <si>
     <t>SIFU5</t>
   </si>
   <si>
-    <t>[0,0,2,0] | [0,0,2,3] | [1,0,2,3]</t>
+    <t>[0,3,2,1] | [0,0,2,3]</t>
+  </si>
+  <si>
+    <t>[0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,2,3] | [0,0,2,0]</t>
   </si>
   <si>
     <t>[0,0,0,3]</t>
   </si>
   <si>
-    <t>[2,1,0,3]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,1,2,0]</t>
+    <t>[1,0,2,3]</t>
   </si>
   <si>
     <t>[2,1,2,3]</t>
   </si>
   <si>
-    <t>[1,0,2,3]</t>
+    <t>[0,3,2,1]</t>
   </si>
   <si>
-    <t>[0,0,0,0] | [0,0,2,0]</t>
+    <t>[0,0,2,0] | [0,1,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,2,0] | [0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[0,1,2,0] | [0,0,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,2,0] | [0,1,0,0] | [0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[0,1,0,0] | [2,1,0,3] | [0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,1,0,0] | [0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[2,1,0,3]</t>
+  </si>
+  <si>
+    <t>[0,1,2,0] | [0,0,0,0]</t>
   </si>
   <si>
     <t>[0,1,0,0]</t>
   </si>
   <si>
-    <t>[0,0,2,0] | [0,3,2,1]</t>
+    <t>[0,0,0,0] | [2,1,0,3]</t>
   </si>
   <si>
-    <t>[0,1,0,0] | [0,0,2,0] | [0,0,0,0]</t>
+    <t>[0,0,0,0] | [0,1,2,0]</t>
   </si>
   <si>
-    <t>[0,0,2,0] | [0,1,2,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,3] | [0,3,2,1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,3] | [2,1,0,3] | [0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0] | [2,1,0,3] | [0,0,0,3]</t>
-  </si>
-  <si>
-    <t>[0,0,2,0]</t>
-  </si>
-  <si>
-    <t>[0,3,2,1]</t>
+    <t>[0,1,0,0] | [0,0,0,0] | [0,0,2,0]</t>
   </si>
   <si>
     <t>[0,0,2,0] | [0,0,0,0]</t>
   </si>
   <si>
-    <t>[0,1,2,0] | [0,0,2,0]</t>
-  </si>
-  <si>
-    <t>[2,1,0,3] | [0,1,0,0] | [0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0] | [0,0,2,0] | [0,1,2,0]</t>
+    <t>[0,0,2,3] | [1,0,2,3]</t>
   </si>
   <si>
     <t>[0,1,0,0] | [0,0,2,0]</t>
   </si>
   <si>
-    <t>[0,0,0,0] | [0,0,0,3] | [0,1,0,0]</t>
-  </si>
-  <si>
-    <t>[0,1,2,0] | [0,0,2,0] | [0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,2,0] | [0,3,2,1] | [0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[1,0,2,3] | [2,1,0,3] | [2,1,2,3]</t>
+    <t>[0,1,2,0] | [0,1,0,0]</t>
   </si>
   <si>
     <t>candidate</t>
@@ -240,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N117" totalsRowShown="0">
-  <autoFilter ref="A1:N117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N104" totalsRowShown="0">
+  <autoFilter ref="A1:N104"/>
   <tableColumns count="14">
     <tableColumn id="1" name="domain"/>
     <tableColumn id="2" name="seed"/>
@@ -620,10 +617,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -635,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6.052970886230469</v>
+        <v>5.00178337097168</v>
       </c>
       <c r="N2">
-        <v>6.052970886230469</v>
+        <v>5.00178337097168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -658,31 +655,31 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>9.998798370361328</v>
+        <v>10.00547409057617</v>
       </c>
       <c r="M3">
-        <v>0.9982585906982422</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N3">
-        <v>10.99705696105957</v>
+        <v>11.00683212280273</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -708,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -723,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.99415397644043</v>
+        <v>6.000518798828125</v>
       </c>
       <c r="N4">
-        <v>4.99415397644043</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -746,28 +743,31 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>9.106159210205078</v>
+        <v>11.00039482116699</v>
       </c>
       <c r="M5">
-        <v>2.996206283569336</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N5">
-        <v>12.10236549377441</v>
+        <v>12.00008392333984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.894899368286133</v>
+        <v>5.089521408081055</v>
       </c>
       <c r="N6">
-        <v>5.894899368286133</v>
+        <v>5.089521408081055</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -831,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>10.59865951538086</v>
+        <v>13.01026344299316</v>
       </c>
       <c r="M7">
-        <v>1.014947891235352</v>
+        <v>4.306316375732422</v>
       </c>
       <c r="N7">
-        <v>11.61360740661621</v>
+        <v>17.31657981872559</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -881,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.000041961669922</v>
+        <v>7.002830505371094</v>
       </c>
       <c r="N8">
-        <v>6.000041961669922</v>
+        <v>7.002830505371094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -931,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.00666618347168</v>
+        <v>13.99803161621094</v>
       </c>
       <c r="M9">
-        <v>2.000808715820312</v>
+        <v>0.9779930114746094</v>
       </c>
       <c r="N9">
-        <v>12.00747489929199</v>
+        <v>14.97602462768555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.977869033813477</v>
+        <v>5.516767501831055</v>
       </c>
       <c r="N10">
-        <v>5.977869033813477</v>
+        <v>5.516767501831055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1004,16 +1004,16 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1022,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>10.98179817199707</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="M11">
-        <v>2.000570297241211</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N11">
-        <v>12.98236846923828</v>
+        <v>11.00015640258789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1051,10 +1051,10 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.990028381347656</v>
+        <v>5.00035285949707</v>
       </c>
       <c r="N12">
-        <v>5.990028381347656</v>
+        <v>5.00035285949707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1092,31 +1092,31 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>11.45029067993164</v>
+        <v>4.998445510864258</v>
       </c>
       <c r="M13">
-        <v>0.99945068359375</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N13">
-        <v>12.44974136352539</v>
+        <v>5.998611450195312</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1139,10 +1139,10 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.984783172607422</v>
+        <v>5.99980354309082</v>
       </c>
       <c r="N14">
-        <v>5.984783172607422</v>
+        <v>5.99980354309082</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1180,31 +1180,28 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
         <v>24</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>8.987903594970703</v>
+        <v>4.998445510864258</v>
       </c>
       <c r="M15">
-        <v>0.9999275207519531</v>
+        <v>2.001523971557617</v>
       </c>
       <c r="N15">
-        <v>9.987831115722656</v>
+        <v>6.999969482421875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1227,16 +1224,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -1245,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.014347076416016</v>
+        <v>6.013631820678711</v>
       </c>
       <c r="N16">
-        <v>6.014347076416016</v>
+        <v>6.013631820678711</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1268,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1286,13 +1280,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>4.540443420410156</v>
+        <v>1.999378204345703</v>
       </c>
       <c r="M17">
-        <v>1.032352447509766</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N17">
-        <v>5.572795867919922</v>
+        <v>2.999067306518555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1315,13 +1309,16 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1330,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.098176956176758</v>
+        <v>6.001472473144531</v>
       </c>
       <c r="N18">
-        <v>4.098176956176758</v>
+        <v>6.001472473144531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1353,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1368,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1.000881195068359</v>
+        <v>7.001638412475586</v>
       </c>
       <c r="M19">
-        <v>1.999378204345703</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N19">
-        <v>3.000259399414062</v>
+        <v>7.998943328857422</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1397,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1412,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5.988597869873047</v>
+        <v>5.000591278076172</v>
       </c>
       <c r="N20">
-        <v>5.988597869873047</v>
+        <v>5.000591278076172</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1435,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1453,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>2.003192901611328</v>
+        <v>1.01923942565918</v>
       </c>
       <c r="M21">
-        <v>2.000331878662109</v>
+        <v>1.997232437133789</v>
       </c>
       <c r="N21">
-        <v>4.003524780273438</v>
+        <v>3.016471862792969</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1482,13 +1479,13 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1500,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.969451904296875</v>
+        <v>5.000829696655273</v>
       </c>
       <c r="N22">
-        <v>6.969451904296875</v>
+        <v>5.000829696655273</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1523,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1541,13 +1538,13 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>7.976770401000977</v>
+        <v>4.993915557861328</v>
       </c>
       <c r="M23">
-        <v>0.9992122650146484</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N23">
-        <v>8.975982666015625</v>
+        <v>5.992889404296875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1570,10 +1567,10 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1588,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.089448928833008</v>
+        <v>7.009029388427734</v>
       </c>
       <c r="N24">
-        <v>6.089448928833008</v>
+        <v>7.009029388427734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1611,31 +1608,31 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>10.03360748291016</v>
+        <v>14.02544975280762</v>
       </c>
       <c r="M25">
-        <v>3.108978271484375</v>
+        <v>0.9877681732177734</v>
       </c>
       <c r="N25">
-        <v>13.14258575439453</v>
+        <v>15.01321792602539</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1658,13 +1655,13 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1676,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>5.004167556762695</v>
+        <v>6.978034973144531</v>
       </c>
       <c r="N26">
-        <v>5.004167556762695</v>
+        <v>6.978034973144531</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1699,31 +1696,31 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>9.067296981811523</v>
+        <v>7.470369338989258</v>
       </c>
       <c r="M27">
-        <v>2.905368804931641</v>
+        <v>1.996517181396484</v>
       </c>
       <c r="N27">
-        <v>11.97266578674316</v>
+        <v>9.466886520385742</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1746,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1764,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>7.481098175048828</v>
+        <v>6.016969680786133</v>
       </c>
       <c r="N28">
-        <v>7.481098175048828</v>
+        <v>6.016969680786133</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1787,16 +1784,16 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -1805,13 +1802,13 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>6.051540374755859</v>
+        <v>4.988193511962891</v>
       </c>
       <c r="M29">
-        <v>0.9937286376953125</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N29">
-        <v>7.045269012451172</v>
+        <v>5.970954895019531</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1834,10 +1831,10 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1852,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>5.971193313598633</v>
+        <v>5.114555358886719</v>
       </c>
       <c r="N30">
-        <v>5.971193313598633</v>
+        <v>5.114555358886719</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1875,13 +1872,13 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1893,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>4.995822906494141</v>
+        <v>5.050897598266602</v>
       </c>
       <c r="M31">
-        <v>1.988649368286133</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N31">
-        <v>6.984472274780273</v>
+        <v>6.049871444702148</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1922,10 +1919,10 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1940,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>6.086349487304688</v>
+        <v>5.102634429931641</v>
       </c>
       <c r="N32">
-        <v>6.086349487304688</v>
+        <v>5.102634429931641</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1963,31 +1960,31 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>9.11712646484375</v>
+        <v>10.25867462158203</v>
       </c>
       <c r="M33">
-        <v>1.982927322387695</v>
+        <v>0.9639263153076172</v>
       </c>
       <c r="N33">
-        <v>11.10005378723145</v>
+        <v>11.22260093688965</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2010,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2028,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>5.019903182983398</v>
+        <v>6.00886344909668</v>
       </c>
       <c r="N34">
-        <v>5.019903182983398</v>
+        <v>6.00886344909668</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2051,31 +2048,31 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>7.116794586181641</v>
+        <v>9.995698928833008</v>
       </c>
       <c r="M35">
-        <v>0.9977817535400391</v>
+        <v>0.9710788726806641</v>
       </c>
       <c r="N35">
-        <v>8.11457633972168</v>
+        <v>10.96677780151367</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2098,10 +2095,10 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2116,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>7.030487060546875</v>
+        <v>6.109714508056641</v>
       </c>
       <c r="N36">
-        <v>7.030487060546875</v>
+        <v>6.109714508056641</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2139,31 +2136,28 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>10.0557804107666</v>
+        <v>9.04393196105957</v>
       </c>
       <c r="M37">
-        <v>0.9849071502685547</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>11.04068756103516</v>
+        <v>9.04393196105957</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2186,10 +2180,10 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2204,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>5.981922149658203</v>
+        <v>5.103826522827148</v>
       </c>
       <c r="N38">
-        <v>5.981922149658203</v>
+        <v>5.103826522827148</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2227,10 +2221,10 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2242,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>14.40811157226562</v>
+        <v>10.13088226318359</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.9965896606445312</v>
       </c>
       <c r="N39">
-        <v>14.40811157226562</v>
+        <v>11.12747192382812</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2271,10 +2265,10 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2289,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>5.945205688476562</v>
+        <v>6.016969680786133</v>
       </c>
       <c r="N40">
-        <v>5.945205688476562</v>
+        <v>6.016969680786133</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2312,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2327,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>10.52498817443848</v>
+        <v>12.99858093261719</v>
       </c>
       <c r="M41">
-        <v>0.9968280792236328</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>11.52181625366211</v>
+        <v>12.99858093261719</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2356,10 +2350,10 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2374,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>5.151987075805664</v>
+        <v>7.019281387329102</v>
       </c>
       <c r="N42">
-        <v>5.151987075805664</v>
+        <v>7.019281387329102</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2397,31 +2391,31 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>12.94970512390137</v>
+        <v>9.919881820678711</v>
       </c>
       <c r="M43">
-        <v>3.366947174072266</v>
+        <v>1.965999603271484</v>
       </c>
       <c r="N43">
-        <v>16.31665229797363</v>
+        <v>11.8858814239502</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2444,10 +2438,10 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2462,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>4.994392395019531</v>
+        <v>5.107879638671875</v>
       </c>
       <c r="N44">
-        <v>4.994392395019531</v>
+        <v>5.107879638671875</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2485,31 +2479,31 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>7.561445236206055</v>
+        <v>9.994029998779297</v>
       </c>
       <c r="M45">
-        <v>0.9999275207519531</v>
+        <v>1.109600067138672</v>
       </c>
       <c r="N45">
-        <v>8.561372756958008</v>
+        <v>11.10363006591797</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2532,10 +2526,10 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2550,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>6.982564926147461</v>
+        <v>6.10804557800293</v>
       </c>
       <c r="N46">
-        <v>6.982564926147461</v>
+        <v>6.10804557800293</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2573,31 +2567,31 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
         <v>17</v>
       </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>6.043434143066406</v>
+        <v>6.58106803894043</v>
       </c>
       <c r="M47">
-        <v>1.051664352416992</v>
+        <v>0.9975433349609375</v>
       </c>
       <c r="N47">
-        <v>7.095098495483398</v>
+        <v>7.578611373901367</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2620,10 +2614,10 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2638,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>6.000995635986328</v>
+        <v>6.976842880249023</v>
       </c>
       <c r="N48">
-        <v>6.000995635986328</v>
+        <v>6.976842880249023</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2661,16 +2655,16 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -2679,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>5.112886428833008</v>
+        <v>5.98597526550293</v>
       </c>
       <c r="M49">
-        <v>0.9989738464355469</v>
+        <v>0.9963512420654297</v>
       </c>
       <c r="N49">
-        <v>6.111860275268555</v>
+        <v>6.982326507568359</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2708,10 +2702,10 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2723,13 +2717,13 @@
         <v>10</v>
       </c>
       <c r="L50">
-        <v>1.008987426757812</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>5.084514617919922</v>
+        <v>6.038665771484375</v>
       </c>
       <c r="N50">
-        <v>6.093502044677734</v>
+        <v>6.038665771484375</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2749,13 +2743,13 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2767,13 +2761,13 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>5.983829498291016</v>
+        <v>5.748987197875977</v>
       </c>
       <c r="M51">
-        <v>0.9901523590087891</v>
+        <v>0.9307861328125</v>
       </c>
       <c r="N51">
-        <v>6.973981857299805</v>
+        <v>6.679773330688477</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2796,13 +2790,13 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2814,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>6.990671157836914</v>
+        <v>6.036520004272461</v>
       </c>
       <c r="N52">
-        <v>6.990671157836914</v>
+        <v>6.036520004272461</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2837,10 +2831,10 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
         <v>36</v>
@@ -2855,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>10.52379608154297</v>
+        <v>7.988214492797852</v>
       </c>
       <c r="M53">
-        <v>2.027988433837891</v>
+        <v>1.275539398193359</v>
       </c>
       <c r="N53">
-        <v>12.55178451538086</v>
+        <v>9.263753890991211</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2884,13 +2878,13 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2902,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>6.051063537597656</v>
+        <v>4.977703094482422</v>
       </c>
       <c r="N54">
-        <v>6.051063537597656</v>
+        <v>4.977703094482422</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2925,31 +2919,31 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>10.02764701843262</v>
+        <v>5.033969879150391</v>
       </c>
       <c r="M55">
-        <v>2.999782562255859</v>
+        <v>1.066207885742188</v>
       </c>
       <c r="N55">
-        <v>13.02742958068848</v>
+        <v>6.100177764892578</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2972,10 +2966,10 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2990,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>5.075693130493164</v>
+        <v>7.503509521484375</v>
       </c>
       <c r="N56">
-        <v>5.075693130493164</v>
+        <v>7.503509521484375</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3013,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3031,13 +3025,13 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>7.993698120117188</v>
+        <v>11.00754737854004</v>
       </c>
       <c r="M57">
-        <v>0.9992122650146484</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="N57">
-        <v>8.992910385131836</v>
+        <v>13.00549507141113</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3060,10 +3054,10 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3078,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>5.097627639770508</v>
+        <v>7.275819778442383</v>
       </c>
       <c r="N58">
-        <v>5.097627639770508</v>
+        <v>7.275819778442383</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3101,31 +3095,31 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>5.998134613037109</v>
+        <v>6.025075912475586</v>
       </c>
       <c r="M59">
-        <v>1.001834869384766</v>
+        <v>0.9906291961669922</v>
       </c>
       <c r="N59">
-        <v>6.999969482421875</v>
+        <v>7.015705108642578</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3148,10 +3142,10 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -3166,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>7.111787796020508</v>
+        <v>5.983829498291016</v>
       </c>
       <c r="N60">
-        <v>7.111787796020508</v>
+        <v>5.983829498291016</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3189,16 +3183,16 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
         <v>39</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -3207,13 +3201,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>4.996538162231445</v>
+        <v>5.020618438720703</v>
       </c>
       <c r="M61">
-        <v>2.606630325317383</v>
+        <v>0.9846687316894531</v>
       </c>
       <c r="N61">
-        <v>7.603168487548828</v>
+        <v>6.005287170410156</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3236,10 +3230,10 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -3254,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>7.015705108642578</v>
+        <v>5.532264709472656</v>
       </c>
       <c r="N62">
-        <v>7.015705108642578</v>
+        <v>5.532264709472656</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3277,31 +3271,31 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
         <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
       </c>
       <c r="H63" t="s">
         <v>40</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>12.18748092651367</v>
+        <v>10.01071929931641</v>
       </c>
       <c r="M63">
-        <v>1.672983169555664</v>
+        <v>0.9860992431640625</v>
       </c>
       <c r="N63">
-        <v>13.86046409606934</v>
+        <v>10.99681854248047</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3324,10 +3318,10 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -3342,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>4.996538162231445</v>
+        <v>5.099296569824219</v>
       </c>
       <c r="N64">
-        <v>4.996538162231445</v>
+        <v>5.099296569824219</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3365,13 +3359,13 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
         <v>17</v>
       </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3380,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>9.685516357421875</v>
+        <v>10.98823547363281</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1.013755798339844</v>
       </c>
       <c r="N65">
-        <v>9.685516357421875</v>
+        <v>12.00199127197266</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3412,10 +3406,10 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -3430,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>6.005764007568359</v>
+        <v>8.898496627807617</v>
       </c>
       <c r="N66">
-        <v>6.005764007568359</v>
+        <v>8.898496627807617</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3453,31 +3447,31 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>9.990930557250977</v>
+        <v>6.955862045288086</v>
       </c>
       <c r="M67">
-        <v>1.017093658447266</v>
+        <v>1.016616821289062</v>
       </c>
       <c r="N67">
-        <v>11.00802421569824</v>
+        <v>7.972478866577148</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3500,10 +3494,10 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3518,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>5.999565124511719</v>
+        <v>8.332967758178711</v>
       </c>
       <c r="N68">
-        <v>5.999565124511719</v>
+        <v>8.332967758178711</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3541,31 +3535,31 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
         <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
       </c>
       <c r="H69" t="s">
         <v>41</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>6.11114501953125</v>
+        <v>5.975961685180664</v>
       </c>
       <c r="M69">
-        <v>2.001762390136719</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N69">
-        <v>8.112907409667969</v>
+        <v>6.99925422668457</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3588,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -3606,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>6.005525588989258</v>
+        <v>5.515813827514648</v>
       </c>
       <c r="N70">
-        <v>6.005525588989258</v>
+        <v>5.515813827514648</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3629,13 +3623,13 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
         <v>17</v>
       </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -3647,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>6.01959228515625</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="M71">
-        <v>0.9877681732177734</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N71">
-        <v>7.007360458374023</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3676,10 +3670,10 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -3694,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>6.023883819580078</v>
+        <v>7.188081741333008</v>
       </c>
       <c r="N72">
-        <v>6.023883819580078</v>
+        <v>7.188081741333008</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3717,31 +3711,31 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>10.66994667053223</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="M73">
-        <v>0.9407997131347656</v>
+        <v>1.038551330566406</v>
       </c>
       <c r="N73">
-        <v>11.61074638366699</v>
+        <v>8.039236068725586</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3764,10 +3758,10 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -3782,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>5.004167556762695</v>
+        <v>7.989883422851562</v>
       </c>
       <c r="N74">
-        <v>5.004167556762695</v>
+        <v>7.989883422851562</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3805,16 +3799,16 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3823,13 +3817,13 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>7.998466491699219</v>
+        <v>8.316516876220703</v>
       </c>
       <c r="M75">
-        <v>1.021146774291992</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N75">
-        <v>9.019613265991211</v>
+        <v>9.299278259277344</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3852,13 +3846,13 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3870,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>7.015705108642578</v>
+        <v>6.019353866577148</v>
       </c>
       <c r="N76">
-        <v>7.015705108642578</v>
+        <v>6.019353866577148</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3893,31 +3887,28 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>5.992889404296875</v>
+        <v>4.988431930541992</v>
       </c>
       <c r="M77">
-        <v>1.016378402709961</v>
+        <v>1.624107360839844</v>
       </c>
       <c r="N77">
-        <v>7.009267807006836</v>
+        <v>6.612539291381836</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3940,10 +3931,10 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3958,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>7.146120071411133</v>
+        <v>5.078315734863281</v>
       </c>
       <c r="N78">
-        <v>7.146120071411133</v>
+        <v>5.078315734863281</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3981,10 +3972,10 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3993,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>7.409572601318359</v>
+        <v>6.079196929931641</v>
       </c>
       <c r="M79">
-        <v>0.9930133819580078</v>
+        <v>1.006603240966797</v>
       </c>
       <c r="N79">
-        <v>8.402585983276367</v>
+        <v>7.085800170898438</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4025,7 +4016,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
         <v>33</v>
@@ -4043,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>6.438255310058594</v>
+        <v>5.009174346923828</v>
       </c>
       <c r="N80">
-        <v>6.438255310058594</v>
+        <v>5.009174346923828</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4066,31 +4057,28 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>6.021022796630859</v>
+        <v>7.150411605834961</v>
       </c>
       <c r="M81">
-        <v>0.9999275207519531</v>
+        <v>1.981735229492188</v>
       </c>
       <c r="N81">
-        <v>7.020950317382812</v>
+        <v>9.132146835327148</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4113,10 +4101,10 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -4131,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>5.972385406494141</v>
+        <v>7.063627243041992</v>
       </c>
       <c r="N82">
-        <v>5.972385406494141</v>
+        <v>7.063627243041992</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4154,31 +4142,31 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>8.991003036499023</v>
+        <v>11.5351676940918</v>
       </c>
       <c r="M83">
-        <v>1.009702682495117</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>10.00070571899414</v>
+        <v>11.5351676940918</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4201,16 +4189,13 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4219,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>7.018327713012695</v>
+        <v>9.315729141235352</v>
       </c>
       <c r="N84">
-        <v>7.018327713012695</v>
+        <v>9.315729141235352</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4242,13 +4227,13 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -4257,16 +4242,16 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>7.125616073608398</v>
+        <v>3.017187118530273</v>
       </c>
       <c r="M85">
-        <v>1.001358032226562</v>
+        <v>1.003265380859375</v>
       </c>
       <c r="N85">
-        <v>8.126974105834961</v>
+        <v>4.020452499389648</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4289,13 +4274,16 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4304,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>5.000591278076172</v>
+        <v>4.014015197753906</v>
       </c>
       <c r="N86">
-        <v>5.000591278076172</v>
+        <v>4.014015197753906</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4327,31 +4315,31 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>2.026081085205078</v>
+        <v>4.996538162231445</v>
       </c>
       <c r="M87">
-        <v>1.990556716918945</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>4.016637802124023</v>
+        <v>4.996538162231445</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4374,7 +4362,7 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4389,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>10.00785827636719</v>
+        <v>5.758047103881836</v>
       </c>
       <c r="N88">
-        <v>10.00785827636719</v>
+        <v>5.758047103881836</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4412,31 +4400,28 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>0.995635986328125</v>
+        <v>1.024246215820312</v>
       </c>
       <c r="M89">
-        <v>0.9951591491699219</v>
+        <v>1.990318298339844</v>
       </c>
       <c r="N89">
-        <v>1.990795135498047</v>
+        <v>3.014564514160156</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4459,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4474,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>6.026268005371094</v>
+        <v>5.000114440917969</v>
       </c>
       <c r="N90">
-        <v>6.026268005371094</v>
+        <v>5.000114440917969</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4497,31 +4482,31 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>1.003026962280273</v>
+        <v>0.9980201721191406</v>
       </c>
       <c r="M91">
-        <v>1.990795135498047</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N91">
-        <v>2.99382209777832</v>
+        <v>2.99835205078125</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4544,10 +4529,10 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -4562,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>6.080389022827148</v>
+        <v>5.904912948608398</v>
       </c>
       <c r="N92">
-        <v>6.080389022827148</v>
+        <v>5.904912948608398</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4585,31 +4570,28 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>3.025054931640625</v>
+        <v>3.95965576171875</v>
       </c>
       <c r="M93">
-        <v>0.9872913360595703</v>
+        <v>1.030445098876953</v>
       </c>
       <c r="N93">
-        <v>4.012346267700195</v>
+        <v>4.990100860595703</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4632,10 +4614,10 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4650,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>5.229949951171875</v>
+        <v>6.15239143371582</v>
       </c>
       <c r="N94">
-        <v>5.229949951171875</v>
+        <v>6.15239143371582</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4673,31 +4655,31 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>9.974479675292969</v>
+        <v>4.003524780273438</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>2.385854721069336</v>
       </c>
       <c r="N95">
-        <v>9.974479675292969</v>
+        <v>6.389379501342773</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4720,16 +4702,13 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -4738,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>7.055521011352539</v>
+        <v>7.733821868896484</v>
       </c>
       <c r="N96">
-        <v>7.055521011352539</v>
+        <v>7.733821868896484</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4761,10 +4740,10 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -4773,16 +4752,16 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>1.975059509277344</v>
+        <v>1.984834671020508</v>
       </c>
       <c r="M97">
-        <v>2.030611038208008</v>
+        <v>1.023054122924805</v>
       </c>
       <c r="N97">
-        <v>4.005670547485352</v>
+        <v>3.007888793945312</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4805,7 +4784,7 @@
         <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4820,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>5.98907470703125</v>
+        <v>6.025075912475586</v>
       </c>
       <c r="N98">
-        <v>5.98907470703125</v>
+        <v>6.025075912475586</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4843,31 +4822,31 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>1.978158950805664</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="M99">
-        <v>0.9970664978027344</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>2.975225448608398</v>
+        <v>2.992153167724609</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4890,7 +4869,7 @@
         <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4905,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>6.013631820678711</v>
+        <v>4.992485046386719</v>
       </c>
       <c r="N100">
-        <v>6.013631820678711</v>
+        <v>4.992485046386719</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4928,31 +4907,28 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>24</v>
-      </c>
-      <c r="H101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>1.993894577026367</v>
+        <v>1.563310623168945</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1.037359237670898</v>
       </c>
       <c r="N101">
-        <v>1.993894577026367</v>
+        <v>2.600669860839844</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +4941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4985,13 +4961,13 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -5029,13 +5005,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -5053,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6.052970886230469</v>
+        <v>5.00178337097168</v>
       </c>
       <c r="N2">
-        <v>6.052970886230469</v>
+        <v>5.00178337097168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5067,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5091,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>9.998798370361328</v>
+        <v>10.00547409057617</v>
       </c>
       <c r="M3">
-        <v>0.9982585906982422</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N3">
-        <v>10.99705696105957</v>
+        <v>11.00683212280273</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5111,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -5135,16 +5111,16 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>9.998798370361328</v>
+        <v>10.00547409057617</v>
       </c>
       <c r="M4">
-        <v>0.9982585906982422</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N4">
-        <v>10.99705696105957</v>
+        <v>11.00683212280273</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5155,22 +5131,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -5179,16 +5155,16 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>9.998798370361328</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9982585906982422</v>
+        <v>6.000518798828125</v>
       </c>
       <c r="N5">
-        <v>10.99705696105957</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5199,19 +5175,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0.4</v>
@@ -5223,16 +5199,16 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.00039482116699</v>
       </c>
       <c r="M6">
-        <v>4.99415397644043</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N6">
-        <v>4.99415397644043</v>
+        <v>12.00008392333984</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5243,22 +5219,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -5267,16 +5243,16 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.00039482116699</v>
       </c>
       <c r="M7">
-        <v>5.894899368286133</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N7">
-        <v>5.894899368286133</v>
+        <v>12.00008392333984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5287,13 +5263,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5311,16 +5287,16 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>10.59865951538086</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014947891235352</v>
+        <v>5.089521408081055</v>
       </c>
       <c r="N8">
-        <v>11.61360740661621</v>
+        <v>5.089521408081055</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5331,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5346,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -5355,16 +5331,16 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.01026344299316</v>
       </c>
       <c r="M9">
-        <v>6.000041961669922</v>
+        <v>4.306316375732422</v>
       </c>
       <c r="N9">
-        <v>6.000041961669922</v>
+        <v>17.31657981872559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5381,7 +5357,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5390,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -5405,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.977869033813477</v>
+        <v>7.002830505371094</v>
       </c>
       <c r="N10">
-        <v>5.977869033813477</v>
+        <v>7.002830505371094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5419,19 +5395,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -5443,16 +5419,16 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>10.98179817199707</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2.000570297241211</v>
+        <v>5.516767501831055</v>
       </c>
       <c r="N11">
-        <v>12.98236846923828</v>
+        <v>5.516767501831055</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5463,13 +5439,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5478,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -5487,16 +5463,16 @@
         <v>10</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.00022888183594</v>
       </c>
       <c r="M12">
-        <v>5.990028381347656</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N12">
-        <v>5.990028381347656</v>
+        <v>11.00015640258789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5507,19 +5483,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0.2</v>
@@ -5531,16 +5507,16 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>11.45029067993164</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.99945068359375</v>
+        <v>5.00035285949707</v>
       </c>
       <c r="N13">
-        <v>12.44974136352539</v>
+        <v>5.00035285949707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5551,14 +5527,14 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -5566,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -5575,16 +5551,16 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.998445510864258</v>
       </c>
       <c r="M14">
-        <v>5.984783172607422</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N14">
-        <v>5.984783172607422</v>
+        <v>5.998611450195312</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5595,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5619,16 +5595,16 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>8.987903594970703</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9999275207519531</v>
+        <v>5.99980354309082</v>
       </c>
       <c r="N15">
-        <v>9.987831115722656</v>
+        <v>5.99980354309082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5639,19 +5615,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0.6</v>
@@ -5663,16 +5639,16 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.999378204345703</v>
       </c>
       <c r="M16">
-        <v>6.014347076416016</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N16">
-        <v>6.014347076416016</v>
+        <v>2.999067306518555</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5683,22 +5659,22 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -5707,16 +5683,16 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>4.540443420410156</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.032352447509766</v>
+        <v>6.001472473144531</v>
       </c>
       <c r="N17">
-        <v>5.572795867919922</v>
+        <v>6.001472473144531</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5727,13 +5703,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5754,13 +5730,13 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>2.003192901611328</v>
+        <v>1.01923942565918</v>
       </c>
       <c r="M18">
-        <v>2.000331878662109</v>
+        <v>1.997232437133789</v>
       </c>
       <c r="N18">
-        <v>4.003524780273438</v>
+        <v>3.016471862792969</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5774,7 +5750,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -5783,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0.2</v>
@@ -5801,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.969451904296875</v>
+        <v>5.000829696655273</v>
       </c>
       <c r="N19">
-        <v>6.969451904296875</v>
+        <v>5.000829696655273</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5815,13 +5791,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5842,13 +5818,13 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>7.976770401000977</v>
+        <v>4.993915557861328</v>
       </c>
       <c r="M20">
-        <v>0.9992122650146484</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N20">
-        <v>8.975982666015625</v>
+        <v>5.992889404296875</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5859,13 +5835,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5886,13 +5862,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>7.976770401000977</v>
+        <v>4.993915557861328</v>
       </c>
       <c r="M21">
-        <v>0.9992122650146484</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N21">
-        <v>8.975982666015625</v>
+        <v>5.992889404296875</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5906,10 +5882,10 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5933,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.089448928833008</v>
+        <v>7.009029388427734</v>
       </c>
       <c r="N22">
-        <v>6.089448928833008</v>
+        <v>7.009029388427734</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5947,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5971,16 +5947,16 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>10.03360748291016</v>
+        <v>14.02544975280762</v>
       </c>
       <c r="M23">
-        <v>3.108978271484375</v>
+        <v>0.9877681732177734</v>
       </c>
       <c r="N23">
-        <v>13.14258575439453</v>
+        <v>15.01321792602539</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5991,22 +5967,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -6015,16 +5991,16 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.02544975280762</v>
       </c>
       <c r="M24">
-        <v>5.004167556762695</v>
+        <v>0.9877681732177734</v>
       </c>
       <c r="N24">
-        <v>5.004167556762695</v>
+        <v>15.01321792602539</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -6035,19 +6011,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0.6</v>
@@ -6059,16 +6035,16 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>9.067296981811523</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2.905368804931641</v>
+        <v>6.978034973144531</v>
       </c>
       <c r="N25">
-        <v>11.97266578674316</v>
+        <v>6.978034973144531</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6079,19 +6055,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0.6</v>
@@ -6103,16 +6079,16 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>9.067296981811523</v>
+        <v>7.470369338989258</v>
       </c>
       <c r="M26">
-        <v>2.905368804931641</v>
+        <v>1.996517181396484</v>
       </c>
       <c r="N26">
-        <v>11.97266578674316</v>
+        <v>9.466886520385742</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6123,22 +6099,22 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -6147,16 +6123,16 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>7.470369338989258</v>
       </c>
       <c r="M27">
-        <v>7.481098175048828</v>
+        <v>1.996517181396484</v>
       </c>
       <c r="N27">
-        <v>7.481098175048828</v>
+        <v>9.466886520385742</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6167,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -6191,16 +6167,16 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>6.051540374755859</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.9937286376953125</v>
+        <v>6.016969680786133</v>
       </c>
       <c r="N28">
-        <v>7.045269012451172</v>
+        <v>6.016969680786133</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6211,16 +6187,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -6238,13 +6214,13 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>6.051540374755859</v>
+        <v>4.988193511962891</v>
       </c>
       <c r="M29">
-        <v>0.9937286376953125</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N29">
-        <v>7.045269012451172</v>
+        <v>5.970954895019531</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6255,16 +6231,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -6282,13 +6258,13 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>6.051540374755859</v>
+        <v>4.988193511962891</v>
       </c>
       <c r="M30">
-        <v>0.9937286376953125</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N30">
-        <v>7.045269012451172</v>
+        <v>5.970954895019531</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6299,22 +6275,22 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -6323,16 +6299,16 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4.988193511962891</v>
       </c>
       <c r="M31">
-        <v>5.971193313598633</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N31">
-        <v>5.971193313598633</v>
+        <v>5.970954895019531</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6343,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -6367,16 +6343,16 @@
         <v>10</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>4.995822906494141</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1.988649368286133</v>
+        <v>5.114555358886719</v>
       </c>
       <c r="N32">
-        <v>6.984472274780273</v>
+        <v>5.114555358886719</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6387,19 +6363,19 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -6414,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>4.995822906494141</v>
+        <v>5.050897598266602</v>
       </c>
       <c r="M33">
-        <v>1.988649368286133</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N33">
-        <v>6.984472274780273</v>
+        <v>6.049871444702148</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6431,22 +6407,22 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -6455,16 +6431,16 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>5.050897598266602</v>
       </c>
       <c r="M34">
-        <v>6.086349487304688</v>
+        <v>0.9989738464355469</v>
       </c>
       <c r="N34">
-        <v>6.086349487304688</v>
+        <v>6.049871444702148</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6475,19 +6451,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0.2</v>
@@ -6499,16 +6475,16 @@
         <v>10</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>9.11712646484375</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1.982927322387695</v>
+        <v>5.102634429931641</v>
       </c>
       <c r="N35">
-        <v>11.10005378723145</v>
+        <v>5.102634429931641</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6519,16 +6495,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -6543,16 +6519,16 @@
         <v>10</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>9.11712646484375</v>
+        <v>10.25867462158203</v>
       </c>
       <c r="M36">
-        <v>1.982927322387695</v>
+        <v>0.9639263153076172</v>
       </c>
       <c r="N36">
-        <v>11.10005378723145</v>
+        <v>11.22260093688965</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6563,22 +6539,22 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I37">
         <v>100</v>
@@ -6587,16 +6563,16 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>10.25867462158203</v>
       </c>
       <c r="M37">
-        <v>5.019903182983398</v>
+        <v>0.9639263153076172</v>
       </c>
       <c r="N37">
-        <v>5.019903182983398</v>
+        <v>11.22260093688965</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6607,22 +6583,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
       <c r="F38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
         <v>100</v>
@@ -6634,13 +6610,13 @@
         <v>3</v>
       </c>
       <c r="L38">
-        <v>7.116794586181641</v>
+        <v>10.25867462158203</v>
       </c>
       <c r="M38">
-        <v>0.9977817535400391</v>
+        <v>0.9639263153076172</v>
       </c>
       <c r="N38">
-        <v>8.11457633972168</v>
+        <v>11.22260093688965</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6651,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -6675,16 +6651,16 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>7.116794586181641</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.9977817535400391</v>
+        <v>6.00886344909668</v>
       </c>
       <c r="N39">
-        <v>8.11457633972168</v>
+        <v>6.00886344909668</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6695,16 +6671,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -6719,16 +6695,16 @@
         <v>10</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>7.116794586181641</v>
+        <v>9.995698928833008</v>
       </c>
       <c r="M40">
-        <v>0.9977817535400391</v>
+        <v>0.9710788726806641</v>
       </c>
       <c r="N40">
-        <v>8.11457633972168</v>
+        <v>10.96677780151367</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6739,22 +6715,22 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
         <v>100</v>
@@ -6763,16 +6739,16 @@
         <v>10</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>9.995698928833008</v>
       </c>
       <c r="M41">
-        <v>7.030487060546875</v>
+        <v>0.9710788726806641</v>
       </c>
       <c r="N41">
-        <v>7.030487060546875</v>
+        <v>10.96677780151367</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6783,13 +6759,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6807,16 +6783,16 @@
         <v>10</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L42">
-        <v>10.0557804107666</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.9849071502685547</v>
+        <v>6.109714508056641</v>
       </c>
       <c r="N42">
-        <v>11.04068756103516</v>
+        <v>6.109714508056641</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6827,22 +6803,22 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I43">
         <v>100</v>
@@ -6851,16 +6827,16 @@
         <v>10</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>10.0557804107666</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.9849071502685547</v>
+        <v>5.103826522827148</v>
       </c>
       <c r="N43">
-        <v>11.04068756103516</v>
+        <v>5.103826522827148</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6871,22 +6847,22 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -6895,16 +6871,16 @@
         <v>10</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L44">
-        <v>10.0557804107666</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.9849071502685547</v>
+        <v>6.016969680786133</v>
       </c>
       <c r="N44">
-        <v>11.04068756103516</v>
+        <v>6.016969680786133</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6918,10 +6894,10 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6930,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I45">
         <v>100</v>
@@ -6945,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>5.981922149658203</v>
+        <v>7.019281387329102</v>
       </c>
       <c r="N45">
-        <v>5.981922149658203</v>
+        <v>7.019281387329102</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6959,22 +6935,22 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
         <v>100</v>
@@ -6983,16 +6959,16 @@
         <v>10</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>9.919881820678711</v>
       </c>
       <c r="M46">
-        <v>5.945205688476562</v>
+        <v>1.965999603271484</v>
       </c>
       <c r="N46">
-        <v>5.945205688476562</v>
+        <v>11.8858814239502</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -7003,16 +6979,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -7027,16 +7003,16 @@
         <v>10</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>9.919881820678711</v>
       </c>
       <c r="M47">
-        <v>5.151987075805664</v>
+        <v>1.965999603271484</v>
       </c>
       <c r="N47">
-        <v>5.151987075805664</v>
+        <v>11.8858814239502</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7047,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -7062,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -7071,16 +7047,16 @@
         <v>10</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L48">
-        <v>12.94970512390137</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3.366947174072266</v>
+        <v>5.107879638671875</v>
       </c>
       <c r="N48">
-        <v>16.31665229797363</v>
+        <v>5.107879638671875</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7091,19 +7067,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0.4</v>
@@ -7115,16 +7091,16 @@
         <v>10</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>9.994029998779297</v>
       </c>
       <c r="M49">
-        <v>4.994392395019531</v>
+        <v>1.109600067138672</v>
       </c>
       <c r="N49">
-        <v>4.994392395019531</v>
+        <v>11.10363006591797</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7135,13 +7111,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7150,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -7159,16 +7135,16 @@
         <v>10</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L50">
-        <v>7.561445236206055</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0.9999275207519531</v>
+        <v>6.10804557800293</v>
       </c>
       <c r="N50">
-        <v>8.561372756958008</v>
+        <v>6.10804557800293</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7179,13 +7155,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -7203,16 +7179,16 @@
         <v>10</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>6.58106803894043</v>
       </c>
       <c r="M51">
-        <v>6.982564926147461</v>
+        <v>0.9975433349609375</v>
       </c>
       <c r="N51">
-        <v>6.982564926147461</v>
+        <v>7.578611373901367</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7223,22 +7199,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -7247,16 +7223,16 @@
         <v>10</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L52">
-        <v>6.043434143066406</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>1.051664352416992</v>
+        <v>6.976842880249023</v>
       </c>
       <c r="N52">
-        <v>7.095098495483398</v>
+        <v>6.976842880249023</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7267,22 +7243,22 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I53">
         <v>100</v>
@@ -7294,13 +7270,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>6.043434143066406</v>
+        <v>5.98597526550293</v>
       </c>
       <c r="M53">
-        <v>1.051664352416992</v>
+        <v>0.9963512420654297</v>
       </c>
       <c r="N53">
-        <v>7.095098495483398</v>
+        <v>6.982326507568359</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7311,16 +7287,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -7335,16 +7311,16 @@
         <v>10</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>5.98597526550293</v>
       </c>
       <c r="M54">
-        <v>6.000995635986328</v>
+        <v>0.9963512420654297</v>
       </c>
       <c r="N54">
-        <v>6.000995635986328</v>
+        <v>6.982326507568359</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7355,22 +7331,22 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>33</v>
-      </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>100</v>
@@ -7379,16 +7355,16 @@
         <v>10</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L55">
-        <v>5.112886428833008</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0.9989738464355469</v>
+        <v>6.038665771484375</v>
       </c>
       <c r="N55">
-        <v>6.111860275268555</v>
+        <v>6.038665771484375</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7399,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>100</v>
@@ -7426,13 +7402,13 @@
         <v>2</v>
       </c>
       <c r="L56">
-        <v>5.112886428833008</v>
+        <v>5.748987197875977</v>
       </c>
       <c r="M56">
-        <v>0.9989738464355469</v>
+        <v>0.9307861328125</v>
       </c>
       <c r="N56">
-        <v>6.111860275268555</v>
+        <v>6.679773330688477</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7443,19 +7419,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -7467,16 +7443,16 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>1.008987426757812</v>
+        <v>5.748987197875977</v>
       </c>
       <c r="M57">
-        <v>5.084514617919922</v>
+        <v>0.9307861328125</v>
       </c>
       <c r="N57">
-        <v>6.093502044677734</v>
+        <v>6.679773330688477</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7487,14 +7463,14 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
         <v>33</v>
       </c>
-      <c r="E58" t="s">
-        <v>21</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -7502,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I58">
         <v>100</v>
@@ -7511,16 +7487,16 @@
         <v>10</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L58">
-        <v>5.983829498291016</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0.9901523590087891</v>
+        <v>6.036520004272461</v>
       </c>
       <c r="N58">
-        <v>6.973981857299805</v>
+        <v>6.036520004272461</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7531,22 +7507,22 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
-      </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -7558,13 +7534,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>5.983829498291016</v>
+        <v>7.988214492797852</v>
       </c>
       <c r="M59">
-        <v>0.9901523590087891</v>
+        <v>1.275539398193359</v>
       </c>
       <c r="N59">
-        <v>6.973981857299805</v>
+        <v>9.263753890991211</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7575,19 +7551,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0.2</v>
@@ -7599,16 +7575,16 @@
         <v>10</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>7.988214492797852</v>
       </c>
       <c r="M60">
-        <v>6.990671157836914</v>
+        <v>1.275539398193359</v>
       </c>
       <c r="N60">
-        <v>6.990671157836914</v>
+        <v>9.263753890991211</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7619,13 +7595,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -7634,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
         <v>100</v>
@@ -7643,16 +7619,16 @@
         <v>10</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L61">
-        <v>10.52379608154297</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>2.027988433837891</v>
+        <v>4.977703094482422</v>
       </c>
       <c r="N61">
-        <v>12.55178451538086</v>
+        <v>4.977703094482422</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7663,22 +7639,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
         <v>17</v>
       </c>
-      <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s">
-        <v>33</v>
-      </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
         <v>100</v>
@@ -7690,13 +7666,13 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>10.52379608154297</v>
+        <v>5.033969879150391</v>
       </c>
       <c r="M62">
-        <v>2.027988433837891</v>
+        <v>1.066207885742188</v>
       </c>
       <c r="N62">
-        <v>12.55178451538086</v>
+        <v>6.100177764892578</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7707,19 +7683,19 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0.4</v>
@@ -7731,16 +7707,16 @@
         <v>10</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>5.033969879150391</v>
       </c>
       <c r="M63">
-        <v>6.051063537597656</v>
+        <v>1.066207885742188</v>
       </c>
       <c r="N63">
-        <v>6.051063537597656</v>
+        <v>6.100177764892578</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7751,14 +7727,14 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" t="s">
-        <v>21</v>
-      </c>
       <c r="F64">
         <v>1</v>
       </c>
@@ -7766,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -7775,16 +7751,16 @@
         <v>10</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L64">
-        <v>10.02764701843262</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2.999782562255859</v>
+        <v>7.503509521484375</v>
       </c>
       <c r="N64">
-        <v>13.02742958068848</v>
+        <v>7.503509521484375</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7795,19 +7771,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0.6</v>
@@ -7819,16 +7795,16 @@
         <v>10</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>11.00754737854004</v>
       </c>
       <c r="M65">
-        <v>5.075693130493164</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="N65">
-        <v>5.075693130493164</v>
+        <v>13.00549507141113</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7839,16 +7815,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -7866,13 +7842,13 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>7.993698120117188</v>
+        <v>11.00754737854004</v>
       </c>
       <c r="M66">
-        <v>0.9992122650146484</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="N66">
-        <v>8.992910385131836</v>
+        <v>13.00549507141113</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7883,19 +7859,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0.6</v>
@@ -7910,13 +7886,13 @@
         <v>3</v>
       </c>
       <c r="L67">
-        <v>7.993698120117188</v>
+        <v>11.00754737854004</v>
       </c>
       <c r="M67">
-        <v>0.9992122650146484</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="N67">
-        <v>8.992910385131836</v>
+        <v>13.00549507141113</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7927,22 +7903,22 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -7951,16 +7927,16 @@
         <v>10</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L68">
-        <v>7.993698120117188</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0.9992122650146484</v>
+        <v>7.275819778442383</v>
       </c>
       <c r="N68">
-        <v>8.992910385131836</v>
+        <v>7.275819778442383</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7971,13 +7947,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7995,16 +7971,16 @@
         <v>10</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>6.025075912475586</v>
       </c>
       <c r="M69">
-        <v>5.097627639770508</v>
+        <v>0.9906291961669922</v>
       </c>
       <c r="N69">
-        <v>5.097627639770508</v>
+        <v>7.015705108642578</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -8015,16 +7991,16 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -8039,16 +8015,16 @@
         <v>10</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>5.998134613037109</v>
+        <v>6.025075912475586</v>
       </c>
       <c r="M70">
-        <v>1.001834869384766</v>
+        <v>0.9906291961669922</v>
       </c>
       <c r="N70">
-        <v>6.999969482421875</v>
+        <v>7.015705108642578</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -8059,22 +8035,22 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>100</v>
@@ -8083,16 +8059,16 @@
         <v>10</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L71">
-        <v>5.998134613037109</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>1.001834869384766</v>
+        <v>5.983829498291016</v>
       </c>
       <c r="N71">
-        <v>6.999969482421875</v>
+        <v>5.983829498291016</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8103,22 +8079,22 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>100</v>
@@ -8127,16 +8103,16 @@
         <v>10</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>5.998134613037109</v>
+        <v>5.020618438720703</v>
       </c>
       <c r="M72">
-        <v>1.001834869384766</v>
+        <v>0.9846687316894531</v>
       </c>
       <c r="N72">
-        <v>6.999969482421875</v>
+        <v>6.005287170410156</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8147,16 +8123,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -8171,16 +8147,16 @@
         <v>10</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>5.020618438720703</v>
       </c>
       <c r="M73">
-        <v>7.111787796020508</v>
+        <v>0.9846687316894531</v>
       </c>
       <c r="N73">
-        <v>7.111787796020508</v>
+        <v>6.005287170410156</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8191,22 +8167,22 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
         <v>100</v>
@@ -8215,16 +8191,16 @@
         <v>10</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L74">
-        <v>4.996538162231445</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>2.606630325317383</v>
+        <v>5.532264709472656</v>
       </c>
       <c r="N74">
-        <v>7.603168487548828</v>
+        <v>5.532264709472656</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8235,22 +8211,22 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
         <v>17</v>
       </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I75">
         <v>100</v>
@@ -8262,13 +8238,13 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>4.996538162231445</v>
+        <v>10.01071929931641</v>
       </c>
       <c r="M75">
-        <v>2.606630325317383</v>
+        <v>0.9860992431640625</v>
       </c>
       <c r="N75">
-        <v>7.603168487548828</v>
+        <v>10.99681854248047</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8279,16 +8255,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -8303,16 +8279,16 @@
         <v>10</v>
       </c>
       <c r="K76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>10.01071929931641</v>
       </c>
       <c r="M76">
-        <v>7.015705108642578</v>
+        <v>0.9860992431640625</v>
       </c>
       <c r="N76">
-        <v>7.015705108642578</v>
+        <v>10.99681854248047</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8323,22 +8299,22 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" t="s">
-        <v>21</v>
-      </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
         <v>100</v>
@@ -8347,16 +8323,16 @@
         <v>10</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L77">
-        <v>12.18748092651367</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>1.672983169555664</v>
+        <v>5.099296569824219</v>
       </c>
       <c r="N77">
-        <v>13.86046409606934</v>
+        <v>5.099296569824219</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8367,22 +8343,22 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
         <v>17</v>
       </c>
-      <c r="D78" t="s">
-        <v>21</v>
-      </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I78">
         <v>100</v>
@@ -8394,13 +8370,13 @@
         <v>3</v>
       </c>
       <c r="L78">
-        <v>12.18748092651367</v>
+        <v>10.98823547363281</v>
       </c>
       <c r="M78">
-        <v>1.672983169555664</v>
+        <v>1.013755798339844</v>
       </c>
       <c r="N78">
-        <v>13.86046409606934</v>
+        <v>12.00199127197266</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8411,22 +8387,22 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
         <v>17</v>
       </c>
-      <c r="D79" t="s">
-        <v>21</v>
-      </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I79">
         <v>100</v>
@@ -8435,16 +8411,16 @@
         <v>10</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L79">
-        <v>12.18748092651367</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>1.672983169555664</v>
+        <v>8.898496627807617</v>
       </c>
       <c r="N79">
-        <v>13.86046409606934</v>
+        <v>8.898496627807617</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8455,13 +8431,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -8470,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I80">
         <v>100</v>
@@ -8479,16 +8455,16 @@
         <v>10</v>
       </c>
       <c r="K80">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>6.955862045288086</v>
       </c>
       <c r="M80">
-        <v>4.996538162231445</v>
+        <v>1.016616821289062</v>
       </c>
       <c r="N80">
-        <v>4.996538162231445</v>
+        <v>7.972478866577148</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8499,22 +8475,22 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
         <v>17</v>
       </c>
-      <c r="D81" t="s">
-        <v>21</v>
-      </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -8523,16 +8499,16 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>9.685516357421875</v>
+        <v>6.955862045288086</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1.016616821289062</v>
       </c>
       <c r="N81">
-        <v>9.685516357421875</v>
+        <v>7.972478866577148</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8546,10 +8522,10 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -8558,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I82">
         <v>100</v>
@@ -8573,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>6.005764007568359</v>
+        <v>8.332967758178711</v>
       </c>
       <c r="N82">
-        <v>6.005764007568359</v>
+        <v>8.332967758178711</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8587,13 +8563,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
         <v>17</v>
       </c>
-      <c r="D83" t="s">
-        <v>21</v>
-      </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -8602,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I83">
         <v>100</v>
@@ -8611,16 +8587,16 @@
         <v>10</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>9.990930557250977</v>
+        <v>5.975961685180664</v>
       </c>
       <c r="M83">
-        <v>1.017093658447266</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N83">
-        <v>11.00802421569824</v>
+        <v>6.99925422668457</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8631,16 +8607,16 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -8655,16 +8631,16 @@
         <v>10</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>5.975961685180664</v>
       </c>
       <c r="M84">
-        <v>5.999565124511719</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N84">
-        <v>5.999565124511719</v>
+        <v>6.99925422668457</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8675,13 +8651,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" t="s">
-        <v>21</v>
-      </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -8690,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>100</v>
@@ -8699,16 +8675,16 @@
         <v>10</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L85">
-        <v>6.11114501953125</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>2.001762390136719</v>
+        <v>5.515813827514648</v>
       </c>
       <c r="N85">
-        <v>8.112907409667969</v>
+        <v>5.515813827514648</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8719,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" t="s">
-        <v>21</v>
-      </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>100</v>
@@ -8743,16 +8719,16 @@
         <v>10</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>6.11114501953125</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="M86">
-        <v>2.001762390136719</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N86">
-        <v>8.112907409667969</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8763,22 +8739,22 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
         <v>17</v>
       </c>
-      <c r="D87" t="s">
-        <v>21</v>
-      </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -8787,16 +8763,16 @@
         <v>10</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>6.11114501953125</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="M87">
-        <v>2.001762390136719</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N87">
-        <v>8.112907409667969</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8810,19 +8786,19 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -8837,10 +8813,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>6.005525588989258</v>
+        <v>7.188081741333008</v>
       </c>
       <c r="N88">
-        <v>6.005525588989258</v>
+        <v>7.188081741333008</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8851,22 +8827,22 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I89">
         <v>100</v>
@@ -8875,16 +8851,16 @@
         <v>10</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>6.01959228515625</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="M89">
-        <v>0.9877681732177734</v>
+        <v>1.038551330566406</v>
       </c>
       <c r="N89">
-        <v>7.007360458374023</v>
+        <v>8.039236068725586</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8895,22 +8871,22 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -8919,16 +8895,16 @@
         <v>10</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L90">
-        <v>6.01959228515625</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>0.9877681732177734</v>
+        <v>7.989883422851562</v>
       </c>
       <c r="N90">
-        <v>7.007360458374023</v>
+        <v>7.989883422851562</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8939,13 +8915,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -8954,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -8963,16 +8939,16 @@
         <v>10</v>
       </c>
       <c r="K91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>8.316516876220703</v>
       </c>
       <c r="M91">
-        <v>6.023883819580078</v>
+        <v>0.9827613830566406</v>
       </c>
       <c r="N91">
-        <v>6.023883819580078</v>
+        <v>9.299278259277344</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8983,10 +8959,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -8998,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -9007,16 +8983,16 @@
         <v>10</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L92">
-        <v>10.66994667053223</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>0.9407997131347656</v>
+        <v>6.019353866577148</v>
       </c>
       <c r="N92">
-        <v>11.61074638366699</v>
+        <v>6.019353866577148</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -9027,22 +9003,22 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -9051,16 +9027,16 @@
         <v>10</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L93">
-        <v>10.66994667053223</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>0.9407997131347656</v>
+        <v>5.078315734863281</v>
       </c>
       <c r="N93">
-        <v>11.61074638366699</v>
+        <v>5.078315734863281</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9071,22 +9047,22 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -9095,16 +9071,16 @@
         <v>10</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L94">
-        <v>10.66994667053223</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>0.9407997131347656</v>
+        <v>5.009174346923828</v>
       </c>
       <c r="N94">
-        <v>11.61074638366699</v>
+        <v>5.009174346923828</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9118,10 +9094,10 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -9130,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -9145,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>5.004167556762695</v>
+        <v>7.063627243041992</v>
       </c>
       <c r="N95">
-        <v>5.004167556762695</v>
+        <v>7.063627243041992</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9159,22 +9135,22 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -9183,16 +9159,16 @@
         <v>10</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>7.998466491699219</v>
+        <v>11.5351676940918</v>
       </c>
       <c r="M96">
-        <v>1.021146774291992</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>9.019613265991211</v>
+        <v>11.5351676940918</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9203,22 +9179,22 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
         <v>100</v>
@@ -9227,16 +9203,16 @@
         <v>10</v>
       </c>
       <c r="K97">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>3.017187118530273</v>
       </c>
       <c r="M97">
-        <v>7.015705108642578</v>
+        <v>1.003265380859375</v>
       </c>
       <c r="N97">
-        <v>7.015705108642578</v>
+        <v>4.020452499389648</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9247,13 +9223,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -9271,16 +9247,16 @@
         <v>10</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L98">
-        <v>5.992889404296875</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>1.016378402709961</v>
+        <v>4.014015197753906</v>
       </c>
       <c r="N98">
-        <v>7.009267807006836</v>
+        <v>4.014015197753906</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9291,22 +9267,22 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I99">
         <v>100</v>
@@ -9315,16 +9291,16 @@
         <v>10</v>
       </c>
       <c r="K99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>4.996538162231445</v>
       </c>
       <c r="M99">
-        <v>7.146120071411133</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>7.146120071411133</v>
+        <v>4.996538162231445</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9335,13 +9311,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -9359,16 +9335,16 @@
         <v>10</v>
       </c>
       <c r="K100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>0.9980201721191406</v>
       </c>
       <c r="M100">
-        <v>6.438255310058594</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N100">
-        <v>6.438255310058594</v>
+        <v>2.99835205078125</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9379,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -9394,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I101">
         <v>100</v>
@@ -9403,16 +9379,16 @@
         <v>10</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>6.021022796630859</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>0.9999275207519531</v>
+        <v>5.904912948608398</v>
       </c>
       <c r="N101">
-        <v>7.020950317382812</v>
+        <v>5.904912948608398</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9426,10 +9402,10 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -9438,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -9453,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>5.972385406494141</v>
+        <v>6.15239143371582</v>
       </c>
       <c r="N102">
-        <v>5.972385406494141</v>
+        <v>6.15239143371582</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9467,10 +9443,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
         <v>24</v>
@@ -9482,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I103">
         <v>100</v>
@@ -9491,16 +9467,16 @@
         <v>10</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>8.991003036499023</v>
+        <v>4.003524780273438</v>
       </c>
       <c r="M103">
-        <v>1.009702682495117</v>
+        <v>2.385854721069336</v>
       </c>
       <c r="N103">
-        <v>10.00070571899414</v>
+        <v>6.389379501342773</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9511,22 +9487,22 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I104">
         <v>100</v>
@@ -9535,588 +9511,16 @@
         <v>10</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="M104">
-        <v>7.018327713012695</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>7.018327713012695</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0.4</v>
-      </c>
-      <c r="I105">
-        <v>100</v>
-      </c>
-      <c r="J105">
-        <v>10</v>
-      </c>
-      <c r="K105">
-        <v>3</v>
-      </c>
-      <c r="L105">
-        <v>7.125616073608398</v>
-      </c>
-      <c r="M105">
-        <v>1.001358032226562</v>
-      </c>
-      <c r="N105">
-        <v>8.126974105834961</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0.6</v>
-      </c>
-      <c r="I106">
-        <v>100</v>
-      </c>
-      <c r="J106">
-        <v>10</v>
-      </c>
-      <c r="K106">
-        <v>3</v>
-      </c>
-      <c r="L106">
-        <v>2.026081085205078</v>
-      </c>
-      <c r="M106">
-        <v>1.990556716918945</v>
-      </c>
-      <c r="N106">
-        <v>4.016637802124023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0.8</v>
-      </c>
-      <c r="I107">
-        <v>100</v>
-      </c>
-      <c r="J107">
-        <v>10</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107">
-        <v>0.995635986328125</v>
-      </c>
-      <c r="M107">
-        <v>0.9951591491699219</v>
-      </c>
-      <c r="N107">
-        <v>1.990795135498047</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="J108">
-        <v>10</v>
-      </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
-      <c r="L108">
-        <v>1.003026962280273</v>
-      </c>
-      <c r="M108">
-        <v>1.990795135498047</v>
-      </c>
-      <c r="N108">
-        <v>2.99382209777832</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0.2</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-      <c r="J109">
-        <v>10</v>
-      </c>
-      <c r="K109">
-        <v>10</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>6.080389022827148</v>
-      </c>
-      <c r="N109">
-        <v>6.080389022827148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0.2</v>
-      </c>
-      <c r="I110">
-        <v>100</v>
-      </c>
-      <c r="J110">
-        <v>10</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110">
-        <v>3.025054931640625</v>
-      </c>
-      <c r="M110">
-        <v>0.9872913360595703</v>
-      </c>
-      <c r="N110">
-        <v>4.012346267700195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0.2</v>
-      </c>
-      <c r="I111">
-        <v>100</v>
-      </c>
-      <c r="J111">
-        <v>10</v>
-      </c>
-      <c r="K111">
-        <v>3</v>
-      </c>
-      <c r="L111">
-        <v>3.025054931640625</v>
-      </c>
-      <c r="M111">
-        <v>0.9872913360595703</v>
-      </c>
-      <c r="N111">
-        <v>4.012346267700195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0.2</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
-      </c>
-      <c r="J112">
-        <v>10</v>
-      </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-      <c r="L112">
-        <v>3.025054931640625</v>
-      </c>
-      <c r="M112">
-        <v>0.9872913360595703</v>
-      </c>
-      <c r="N112">
-        <v>4.012346267700195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0.4</v>
-      </c>
-      <c r="I113">
-        <v>100</v>
-      </c>
-      <c r="J113">
-        <v>10</v>
-      </c>
-      <c r="K113">
-        <v>10</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>5.229949951171875</v>
-      </c>
-      <c r="N113">
-        <v>5.229949951171875</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>0.4</v>
-      </c>
-      <c r="I114">
-        <v>100</v>
-      </c>
-      <c r="J114">
-        <v>10</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>9.974479675292969</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>9.974479675292969</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0.6</v>
-      </c>
-      <c r="I115">
-        <v>100</v>
-      </c>
-      <c r="J115">
-        <v>10</v>
-      </c>
-      <c r="K115">
-        <v>10</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>7.055521011352539</v>
-      </c>
-      <c r="N115">
-        <v>7.055521011352539</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0.8</v>
-      </c>
-      <c r="I116">
-        <v>100</v>
-      </c>
-      <c r="J116">
-        <v>10</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <v>1.978158950805664</v>
-      </c>
-      <c r="M116">
-        <v>0.9970664978027344</v>
-      </c>
-      <c r="N116">
-        <v>2.975225448608398</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>100</v>
-      </c>
-      <c r="J117">
-        <v>10</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117">
-        <v>1.993894577026367</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <v>1.993894577026367</v>
+        <v>2.992153167724609</v>
       </c>
     </row>
   </sheetData>
@@ -10140,16 +9544,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10160,30 +9564,30 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E2">
-        <v>6.083412170410156</v>
+        <v>6.094813346862793</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="D3">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="E3">
-        <v>8.721709251403809</v>
+        <v>8.14943790435791</v>
       </c>
     </row>
   </sheetData>
